--- a/Import/Medicals/cronis_category_template.xlsx
+++ b/Import/Medicals/cronis_category_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Medicals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Medicals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A93A8-C8B9-4601-A8A1-5A487A569A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFDDFB4-0235-4BA1-BAF6-8EAB20596407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -49,161 +49,71 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A00-A09</t>
-  </si>
-  <si>
-    <t>Penyakit menular bakterial, seperti kolera, tifoid, shigellosis, dan gastroenteritis akibat infeksi bakteri.</t>
-  </si>
-  <si>
-    <t>A15-A19</t>
-  </si>
-  <si>
-    <t>Penyakit menular protozoa, termasuk tuberkulosis yang memengaruhi paru-paru dan organ lain.</t>
-  </si>
-  <si>
-    <t>A20-A28</t>
-  </si>
-  <si>
-    <t>Penyakit menular zoonosis, seperti demam kuning, leptospirosis, dan brucellosis.</t>
-  </si>
-  <si>
-    <t>B00-B09</t>
-  </si>
-  <si>
-    <t>Infeksi virus dan infeksi terkait virus, termasuk herpes simpleks dan infeksi virus lainnya.</t>
-  </si>
-  <si>
-    <t>B15-B19</t>
-  </si>
-  <si>
-    <t>Hepatitis viral, meliputi hepatitis A, B, C, D, dan E.</t>
-  </si>
-  <si>
-    <t>C00-C97</t>
-  </si>
-  <si>
-    <t>Kanker, termasuk berbagai jenis tumor ganas dan neoplasma di berbagai organ.</t>
-  </si>
-  <si>
-    <t>D00-D89</t>
-  </si>
-  <si>
-    <t>Penyakit darah dan organ pembentuk darah, termasuk anemia, hemofilia, dan gangguan lainnya.</t>
-  </si>
-  <si>
-    <t>E00-E35</t>
-  </si>
-  <si>
-    <t>Penyakit endokrin, termasuk diabetes melitus, gangguan tiroid, dan kelainan hormon lainnya.</t>
-  </si>
-  <si>
-    <t>E40-E68</t>
-  </si>
-  <si>
-    <t>Penyakit gizi, termasuk kekurangan vitamin, obesitas, dan gangguan metabolisme.</t>
-  </si>
-  <si>
-    <t>F00-F99</t>
-  </si>
-  <si>
-    <t>Gangguan mental dan perilaku, termasuk skizofrenia, depresi, dan gangguan kecemasan.</t>
-  </si>
-  <si>
-    <t>G00-G99</t>
-  </si>
-  <si>
-    <t>Penyakit sistem saraf, termasuk stroke, multiple sclerosis, dan neuropati.</t>
-  </si>
-  <si>
-    <t>H00-H59</t>
-  </si>
-  <si>
-    <t>Penyakit mata dan adnexa, termasuk konjungtivitis, glaukoma, dan katarak.</t>
-  </si>
-  <si>
-    <t>H60-H95</t>
-  </si>
-  <si>
-    <t>Penyakit telinga dan struktur terkait, termasuk otitis media dan gangguan pendengaran.</t>
-  </si>
-  <si>
-    <t>I00-I99</t>
-  </si>
-  <si>
-    <t>Penyakit sistem kardiovaskular, termasuk hipertensi, penyakit jantung koroner, dan stroke.</t>
-  </si>
-  <si>
-    <t>J00-J99</t>
-  </si>
-  <si>
-    <t>Penyakit sistem pernapasan, termasuk pneumonia, asma, dan penyakit paru obstruktif kronis (PPOK).</t>
-  </si>
-  <si>
-    <t>K00-K95</t>
-  </si>
-  <si>
-    <t>Penyakit sistem pencernaan, termasuk gastritis, penyakit hati, dan gangguan usus.</t>
-  </si>
-  <si>
-    <t>L00-L99</t>
-  </si>
-  <si>
-    <t>Penyakit kulit dan jaringan subkutan, termasuk eksim, psoriasis, dan infeksi kulit.</t>
-  </si>
-  <si>
-    <t>M00-M99</t>
-  </si>
-  <si>
-    <t>Penyakit sistem muskuloskeletal dan jaringan ikat, termasuk arthritis, osteoporosis, dan gangguan otot.</t>
-  </si>
-  <si>
-    <t>N00-N99</t>
-  </si>
-  <si>
-    <t>Penyakit sistem genitourinari, termasuk infeksi saluran kemih, penyakit ginjal, dan gangguan reproduksi.</t>
-  </si>
-  <si>
-    <t>O00-O99</t>
-  </si>
-  <si>
-    <t>Penyakit yang terkait dengan kehamilan, persalinan, dan masa nifas.</t>
-  </si>
-  <si>
-    <t>P00-P96</t>
-  </si>
-  <si>
-    <t>Kondisi yang terjadi pada bayi baru lahir dan anak-anak, termasuk kelainan bawaan dan infeksi neonatal.</t>
-  </si>
-  <si>
-    <t>Q00-Q99</t>
-  </si>
-  <si>
-    <t>Kelainan kongenital, termasuk kelainan pada sistem saraf, jantung, dan organ lainnya.</t>
-  </si>
-  <si>
-    <t>R00-R99</t>
-  </si>
-  <si>
-    <t>Gejala dan tanda yang tidak spesifik, termasuk nyeri, kelelahan, dan gejala umum lainnya.</t>
-  </si>
-  <si>
-    <t>S00-T88</t>
-  </si>
-  <si>
-    <t>Cedera dan kerusakan tubuh, termasuk trauma, luka, dan cedera akibat kecelakaan.</t>
-  </si>
-  <si>
-    <t>Z00-Z99</t>
-  </si>
-  <si>
-    <t>Faktor yang memengaruhi kesehatan, termasuk pemeriksaan kesehatan, penyuluhan, dan kondisi sosial.</t>
+    <t>Kanker Kronis</t>
+  </si>
+  <si>
+    <t>Penyakit akibat pertumbuhan sel abnormal yang tidak terkontrol dan berkelanjutan.</t>
+  </si>
+  <si>
+    <t>Diabetes Kronis</t>
+  </si>
+  <si>
+    <t>Gangguan metabolisme gula darah yang berlangsung jangka panjang.</t>
+  </si>
+  <si>
+    <t>Gangguan Mental Kronis</t>
+  </si>
+  <si>
+    <t>Masalah kesehatan mental seperti depresi atau skizofrenia yang berlangsung lama.</t>
+  </si>
+  <si>
+    <t>Neurologi Kronis</t>
+  </si>
+  <si>
+    <t>Gangguan pada sistem saraf yang berlangsung secara progresif atau terus-menerus.</t>
+  </si>
+  <si>
+    <t>Hipertensi Kronis</t>
+  </si>
+  <si>
+    <t>Tekanan darah tinggi yang memerlukan pengelolaan jangka panjang.</t>
+  </si>
+  <si>
+    <t>Jantung Kronis</t>
+  </si>
+  <si>
+    <t>Penyakit pada jantung yang bersifat berkelanjutan, seperti gagal jantung.</t>
+  </si>
+  <si>
+    <t>Penyakit Paru Obstruktif Kronis (PPOK)</t>
+  </si>
+  <si>
+    <t>Gangguan pada saluran pernapasan yang menyebabkan kesulitan bernapas kronis.</t>
+  </si>
+  <si>
+    <t>Asma Kronis</t>
+  </si>
+  <si>
+    <t>Peradangan kronis pada saluran udara yang menyebabkan kesulitan bernapas.</t>
+  </si>
+  <si>
+    <t>Penyakit Autoimun Kronis</t>
+  </si>
+  <si>
+    <t>Penyakit yang disebabkan oleh sistem kekebalan menyerang jaringan tubuh sendiri.</t>
+  </si>
+  <si>
+    <t>Ginjal Kronis</t>
+  </si>
+  <si>
+    <t>Kerusakan ginjal yang berlangsung lama dan memengaruhi fungsi ginjal secara permanen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -212,11 +122,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,13 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -281,7 +183,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:B26" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:B11" headerRowCount="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
@@ -291,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,16 +489,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="107.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="23" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -608,7 +510,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -616,7 +518,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -624,7 +526,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -632,7 +534,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -640,7 +542,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -648,7 +550,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -656,7 +558,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -664,7 +566,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -672,7 +574,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -680,131 +582,11 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
